--- a/Mifos Automation Excels/Client/1974-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/1974-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,20 +234,20 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,20 +549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -568,7 +570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -576,7 +578,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -590,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
@@ -608,7 +610,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -628,81 +630,82 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>813.49</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>9186.51</v>
       </c>
-      <c r="F2" s="7">
-        <v>892.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>562.77</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="F2" s="8">
+        <v>892.56</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>562.76</v>
+      </c>
+      <c r="B3" s="8">
         <v>75</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>487.77</v>
-      </c>
-      <c r="F3" s="7">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>487.76</v>
+      </c>
+      <c r="F3" s="8">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -713,14 +716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
@@ -740,7 +743,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,619 +793,619 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7">
         <v>5000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="7">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>42036</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>838.49</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>4161.51</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>50</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L3" s="8">
         <v>863.49</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
         <v>863.49</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>42050</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>42050</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>4161.51</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>25</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
         <v>25</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>25</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10">
         <v>42064</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7">
         <v>5000</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>42064</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>867.55</v>
-      </c>
-      <c r="G6" s="10">
-        <v>8293.9599999999991</v>
-      </c>
-      <c r="H6" s="7">
-        <v>20.94</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>867.56</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8293.9500000000007</v>
+      </c>
+      <c r="H6" s="8">
+        <v>20.93</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>42095</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>796.62</v>
       </c>
-      <c r="G7" s="10">
-        <v>7497.34</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="9">
+        <v>7497.33</v>
+      </c>
+      <c r="H7" s="8">
         <v>91.87</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>42125</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
         <v>813.52</v>
       </c>
-      <c r="G8" s="10">
-        <v>6683.82</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="9">
+        <v>6683.81</v>
+      </c>
+      <c r="H8" s="8">
         <v>74.97</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="7">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>42156</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>821.65</v>
       </c>
-      <c r="G9" s="10">
-        <v>5862.17</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="9">
+        <v>5862.16</v>
+      </c>
+      <c r="H9" s="8">
         <v>66.84</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>30</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>42186</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
         <v>829.87</v>
       </c>
-      <c r="G10" s="10">
-        <v>5032.3</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="9">
+        <v>5032.29</v>
+      </c>
+      <c r="H10" s="8">
         <v>58.62</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="7">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>42217</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>838.17</v>
       </c>
-      <c r="G11" s="10">
-        <v>4194.13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="9">
+        <v>4194.12</v>
+      </c>
+      <c r="H11" s="8">
         <v>50.32</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="7">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>42248</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
         <v>846.55</v>
       </c>
-      <c r="G12" s="10">
-        <v>3347.58</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="9">
+        <v>3347.57</v>
+      </c>
+      <c r="H12" s="8">
         <v>41.94</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>42278</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <v>855.01</v>
       </c>
-      <c r="G13" s="10">
-        <v>2492.5700000000002</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="9">
+        <v>2492.56</v>
+      </c>
+      <c r="H13" s="8">
         <v>33.479999999999997</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="7">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>42309</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>863.56</v>
       </c>
-      <c r="G14" s="10">
-        <v>1629.01</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="7">
+        <v>1629</v>
+      </c>
+      <c r="H14" s="8">
         <v>24.93</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="7">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>30</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>42339</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <v>872.2</v>
       </c>
-      <c r="G15" s="7">
-        <v>756.81</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="8">
+        <v>756.8</v>
+      </c>
+      <c r="H15" s="8">
         <v>16.29</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7">
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>31</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>42370</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>756.81</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>756.8</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <v>7.57</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>764.38</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>764.38</v>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>764.37</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>764.37</v>
       </c>
     </row>
   </sheetData>
@@ -1412,14 +1415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1434,7 +1437,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,99 +1469,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7">
-        <v>439</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>42064</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>5000</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
         <v>9186.51</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7">
-        <v>437</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>42050</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7">
-        <v>888.49</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="8">
+        <v>888.49</v>
+      </c>
+      <c r="F3" s="8">
         <v>813.49</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>75</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>4186.51</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7">
-        <v>435</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>42005</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>5000</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>5000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/1974-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/1974-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -306,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +780,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,17 +826,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10">
@@ -819,8 +863,9 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -856,14 +901,15 @@
       <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
         <v>863.49</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -901,14 +947,15 @@
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="10">
@@ -933,9 +980,10 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -971,14 +1019,15 @@
       <c r="M6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1014,14 +1063,15 @@
       <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1057,14 +1107,15 @@
       <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1100,14 +1151,15 @@
       <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1143,14 +1195,15 @@
       <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1186,14 +1239,15 @@
       <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1229,14 +1283,15 @@
       <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1272,14 +1327,15 @@
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -1315,14 +1371,15 @@
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -1358,14 +1415,15 @@
       <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -1401,10 +1459,11 @@
       <c r="M16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
         <v>764.37</v>
       </c>
     </row>
@@ -1418,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
